--- a/biology/Botanique/Mounassou/Mounassou.xlsx
+++ b/biology/Botanique/Mounassou/Mounassou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mounassou ou milhassou est une spécialité culinaire du département de la Corrèze (France).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Millas vient de millet, graine utilisée avant que ne lui succède le maïs venu d’Amérique. En occitan, le maïs prend souvent le nom du millet : milh, d’où le milhas ou milhade. Le millas est également appelé « millassou » (« millassous » ou « millassons[1] »). Millassou s’applique de préférence aux versions sucrées (gâteaux)[2]. Selon Mistral, le « mihas », « milhas » (Gascogne, Languedoc), « milhard » (Auvergne), « melhas » ou « melha » (Vivarais), est une « bouillie de farine de maïs, mets fort usité chez les paysans de l’Albigeois[3] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Millas vient de millet, graine utilisée avant que ne lui succède le maïs venu d’Amérique. En occitan, le maïs prend souvent le nom du millet : milh, d’où le milhas ou milhade. Le millas est également appelé « millassou » (« millassous » ou « millassons »). Millassou s’applique de préférence aux versions sucrées (gâteaux). Selon Mistral, le « mihas », « milhas » (Gascogne, Languedoc), « milhard » (Auvergne), « melhas » ou « melha » (Vivarais), est une « bouillie de farine de maïs, mets fort usité chez les paysans de l’Albigeois ».
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Variétés salée et sucrée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mounassou est initialement un gâteau à base de pommes de terre, de crème, de porc et d'échalotes[4].
-Cette préparation a des variantes sucrées plus spécifiquement dénommées milhassou ou millassou. Elles sont élaborées à base de farine de maïs, d'œufs, de lait, de sucre et de fruits. Parmi celles-ci existe le milhassou à la pomme du Limousin[5], le millassou aux fruits rouges  (cassis, myrtilles, mûres)[6] ou le millassou au potiron[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mounassou est initialement un gâteau à base de pommes de terre, de crème, de porc et d'échalotes.
+Cette préparation a des variantes sucrées plus spécifiquement dénommées milhassou ou millassou. Elles sont élaborées à base de farine de maïs, d'œufs, de lait, de sucre et de fruits. Parmi celles-ci existe le milhassou à la pomme du Limousin, le millassou aux fruits rouges  (cassis, myrtilles, mûres) ou le millassou au potiron.
 			Millassou aux pommes
 			Millassou aux pommes reinettes
 </t>
@@ -577,9 +593,11 @@
           <t>Accord mets/vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec le millassou s'impose un vin blanc sec effervescent comme la Blanquette de Limoux ou un Crémant de Limoux ou bien une Clairette de Die, un Vouvray ainsi qu'un Champagne[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec le millassou s'impose un vin blanc sec effervescent comme la Blanquette de Limoux ou un Crémant de Limoux ou bien une Clairette de Die, un Vouvray ainsi qu'un Champagne.
 </t>
         </is>
       </c>
